--- a/Docs/成吉思汗/数值文档.xlsx
+++ b/Docs/成吉思汗/数值文档.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DesignDocs\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="0" windowWidth="25600" windowHeight="14140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1035" yWindow="0" windowWidth="25605" windowHeight="14145" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="伤害公式" sheetId="1" r:id="rId1"/>
     <sheet name="图" sheetId="2" r:id="rId2"/>
     <sheet name="小小军团战斗力计算研究" sheetId="3" r:id="rId3"/>
     <sheet name="放开那三国" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="165">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,22 +198,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主角等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将限制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验限制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -221,6 +211,407 @@
   </si>
   <si>
     <t>系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能开放顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6级</t>
+  </si>
+  <si>
+    <t>7级</t>
+  </si>
+  <si>
+    <t>8级</t>
+  </si>
+  <si>
+    <t>9级</t>
+  </si>
+  <si>
+    <t>10级</t>
+  </si>
+  <si>
+    <t>11级</t>
+  </si>
+  <si>
+    <t>12级</t>
+  </si>
+  <si>
+    <t>13级</t>
+  </si>
+  <si>
+    <t>14级</t>
+  </si>
+  <si>
+    <t>15级</t>
+  </si>
+  <si>
+    <t>16级</t>
+  </si>
+  <si>
+    <t>17级</t>
+  </si>
+  <si>
+    <t>18级</t>
+  </si>
+  <si>
+    <t>19级</t>
+  </si>
+  <si>
+    <t>20级</t>
+  </si>
+  <si>
+    <t>21级</t>
+  </si>
+  <si>
+    <t>22级</t>
+  </si>
+  <si>
+    <t>23级</t>
+  </si>
+  <si>
+    <t>24级</t>
+  </si>
+  <si>
+    <t>25级</t>
+  </si>
+  <si>
+    <t>26级</t>
+  </si>
+  <si>
+    <t>27级</t>
+  </si>
+  <si>
+    <t>28级</t>
+  </si>
+  <si>
+    <t>29级</t>
+  </si>
+  <si>
+    <t>30级</t>
+  </si>
+  <si>
+    <t>游戏阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数（以下均按每天游戏时间1.5小时计算，其中游戏正常增长的时间1小时，活动额外赠与半小时）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试练塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比武</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31级</t>
+  </si>
+  <si>
+    <t>32级</t>
+  </si>
+  <si>
+    <t>33级</t>
+  </si>
+  <si>
+    <t>34级</t>
+  </si>
+  <si>
+    <t>35级</t>
+  </si>
+  <si>
+    <t>36级</t>
+  </si>
+  <si>
+    <t>37级</t>
+  </si>
+  <si>
+    <t>38级</t>
+  </si>
+  <si>
+    <t>39级</t>
+  </si>
+  <si>
+    <t>40级</t>
+  </si>
+  <si>
+    <t>41级</t>
+  </si>
+  <si>
+    <t>42级</t>
+  </si>
+  <si>
+    <t>43级</t>
+  </si>
+  <si>
+    <t>44级</t>
+  </si>
+  <si>
+    <t>45级</t>
+  </si>
+  <si>
+    <t>46级</t>
+  </si>
+  <si>
+    <t>47级</t>
+  </si>
+  <si>
+    <t>48级</t>
+  </si>
+  <si>
+    <t>49级</t>
+  </si>
+  <si>
+    <t>50级</t>
+  </si>
+  <si>
+    <t>前期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51级</t>
+  </si>
+  <si>
+    <t>52级</t>
+  </si>
+  <si>
+    <t>53级</t>
+  </si>
+  <si>
+    <t>54级</t>
+  </si>
+  <si>
+    <t>55级</t>
+  </si>
+  <si>
+    <t>56级</t>
+  </si>
+  <si>
+    <t>57级</t>
+  </si>
+  <si>
+    <t>58级</t>
+  </si>
+  <si>
+    <t>59级</t>
+  </si>
+  <si>
+    <t>60级</t>
+  </si>
+  <si>
+    <t>后期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占星坛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战魂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼化炉，神秘商店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将、进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>61级</t>
+  </si>
+  <si>
+    <t>62级</t>
+  </si>
+  <si>
+    <t>63级</t>
+  </si>
+  <si>
+    <t>64级</t>
+  </si>
+  <si>
+    <t>65级</t>
+  </si>
+  <si>
+    <t>66级</t>
+  </si>
+  <si>
+    <t>67级</t>
+  </si>
+  <si>
+    <t>68级</t>
+  </si>
+  <si>
+    <t>69级</t>
+  </si>
+  <si>
+    <t>70级</t>
+  </si>
+  <si>
+    <t>71级</t>
+  </si>
+  <si>
+    <t>72级</t>
+  </si>
+  <si>
+    <t>73级</t>
+  </si>
+  <si>
+    <t>74级</t>
+  </si>
+  <si>
+    <t>75级</t>
+  </si>
+  <si>
+    <t>76级</t>
+  </si>
+  <si>
+    <t>77级</t>
+  </si>
+  <si>
+    <t>78级</t>
+  </si>
+  <si>
+    <t>79级</t>
+  </si>
+  <si>
+    <t>80级</t>
+  </si>
+  <si>
+    <t>活动副本、第一个小伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1场战斗后升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2场战斗后升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3场战斗后升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4场战斗后升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵武将2人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵武将3人，等级礼包、商店抽将、武将强化、战斗速度 X2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个副本结束，第6场战斗后升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取副本奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第8场战斗后升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10场战斗后升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个副本结束，第13场战斗后升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备、装备强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第18场战斗结束后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23场战斗结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵武将4人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个副本结束，第29场战斗结束后升级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -387,11 +778,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="76">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -429,48 +827,55 @@
     <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -518,37 +923,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.0</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410.0</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460.0</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>510.0</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,37 +984,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205.0</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255.0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>305.0</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355.0</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>405.0</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>455.0</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>505.0</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,37 +1045,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,13 +1090,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2104278264"/>
-        <c:axId val="-2104245464"/>
+        <c:axId val="148015904"/>
+        <c:axId val="148045392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2104278264"/>
+        <c:axId val="148015904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +1104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104245464"/>
+        <c:crossAx val="148045392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -708,7 +1112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104245464"/>
+        <c:axId val="148045392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,14 +1123,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104278264"/>
+        <c:crossAx val="148015904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -735,7 +1138,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -762,10 +1165,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0473718535630273"/>
-          <c:y val="0.0195439739413681"/>
-          <c:w val="0.687869649120336"/>
-          <c:h val="0.875092461976455"/>
+          <c:x val="4.7371853563027297E-2"/>
+          <c:y val="1.9543973941368101E-2"/>
+          <c:w val="0.68786964912033599"/>
+          <c:h val="0.87509246197645496"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -795,37 +1198,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,37 +1240,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.0</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410.0</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460.0</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>510.0</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,37 +1301,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,37 +1343,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205.0</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255.0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>305.0</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355.0</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>405.0</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>455.0</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>505.0</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,37 +1404,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,34 +1449,34 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.454545454545454</c:v>
+                  <c:v>5.4545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.238095238095238</c:v>
+                  <c:v>5.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.161290322580645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.121951219512195</c:v>
+                  <c:v>5.1219512195121952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.098039215686274</c:v>
+                  <c:v>5.0980392156862742</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.081967213114754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.070422535211267</c:v>
+                  <c:v>5.070422535211268</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.061728395061728</c:v>
+                  <c:v>5.0617283950617287</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.054945054945055</c:v>
+                  <c:v>5.0549450549450547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.04950495049505</c:v>
+                  <c:v>5.0495049504950495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,13 +1491,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103143544"/>
-        <c:axId val="-2103140568"/>
+        <c:axId val="258955408"/>
+        <c:axId val="258963984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103143544"/>
+        <c:axId val="258955408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103140568"/>
+        <c:crossAx val="258963984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1112,7 +1514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103140568"/>
+        <c:axId val="258963984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,14 +1525,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103143544"/>
+        <c:crossAx val="258955408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1139,7 +1540,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1166,10 +1567,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0473718535630273"/>
-          <c:y val="0.0195439739413681"/>
-          <c:w val="0.687869649120336"/>
-          <c:h val="0.875092461976455"/>
+          <c:x val="4.7371853563027297E-2"/>
+          <c:y val="1.9543973941368101E-2"/>
+          <c:w val="0.68786964912033599"/>
+          <c:h val="0.87509246197645496"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1199,37 +1600,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,37 +1642,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.0</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410.0</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460.0</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>510.0</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,37 +1703,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,37 +1745,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205.0</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255.0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>305.0</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355.0</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>405.0</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>455.0</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>505.0</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,37 +1806,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,37 +1848,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.63636363636364</c:v>
+                  <c:v>13.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38.70967741935484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.65853658536585</c:v>
+                  <c:v>53.658536585365852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.7450980392157</c:v>
+                  <c:v>62.745098039215691</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.85245901639345</c:v>
+                  <c:v>68.852459016393453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.2394366197183</c:v>
+                  <c:v>73.239436619718305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.5432098765432</c:v>
+                  <c:v>76.543209876543202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.12087912087912</c:v>
+                  <c:v>79.120879120879124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.18811881188117</c:v>
+                  <c:v>81.188118811881168</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>82.88288288288291</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84.297520661157</c:v>
+                  <c:v>84.297520661157023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,13 +1893,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2052268696"/>
-        <c:axId val="2113049992"/>
+        <c:axId val="259015392"/>
+        <c:axId val="259017824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2052268696"/>
+        <c:axId val="259015392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113049992"/>
+        <c:crossAx val="259017824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1516,7 +1916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113049992"/>
+        <c:axId val="259017824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,14 +1927,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052268696"/>
+        <c:crossAx val="259015392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1543,7 +1942,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1976,16 +2375,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" customHeight="1">
+    <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2005,7 +2404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35" customHeight="1">
+    <row r="2" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2025,7 +2424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28" customHeight="1">
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2043,7 +2442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2063,7 +2462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2088,7 +2487,7 @@
         <v>13.636363636363637</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10</v>
       </c>
@@ -2113,7 +2512,7 @@
         <v>38.70967741935484</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20</v>
       </c>
@@ -2138,7 +2537,7 @@
         <v>53.658536585365852</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>30</v>
       </c>
@@ -2163,7 +2562,7 @@
         <v>62.745098039215691</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>40</v>
       </c>
@@ -2188,7 +2587,7 @@
         <v>68.852459016393453</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>50</v>
       </c>
@@ -2213,7 +2612,7 @@
         <v>73.239436619718305</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>60</v>
       </c>
@@ -2238,7 +2637,7 @@
         <v>76.543209876543202</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>70</v>
       </c>
@@ -2263,7 +2662,7 @@
         <v>79.120879120879124</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>80</v>
       </c>
@@ -2288,7 +2687,7 @@
         <v>81.188118811881168</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>90</v>
       </c>
@@ -2313,7 +2712,7 @@
         <v>82.88288288288291</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>100</v>
       </c>
@@ -2358,9 +2757,9 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2368,7 +2767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2389,15 +2788,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1">
         <v>1.6E-2</v>
@@ -2424,7 +2823,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2456,15 +2855,15 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>492</v>
@@ -2501,9 +2900,9 @@
         <v>166.422</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>553</v>
@@ -2540,9 +2939,9 @@
         <v>367.8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>553</v>
@@ -2579,7 +2978,7 @@
         <v>382.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2618,7 +3017,7 @@
         <v>1885.46</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2657,7 +3056,7 @@
         <v>2039.22</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2696,7 +3095,7 @@
         <v>1783.12</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2735,7 +3134,7 @@
         <v>1723.7200000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2774,7 +3173,7 @@
         <v>1950.06</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2813,7 +3212,7 @@
         <v>2125.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2852,7 +3251,7 @@
         <v>1717.02</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2891,7 +3290,7 @@
         <v>1547.88</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2930,7 +3329,7 @@
         <v>1859.4</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2969,7 +3368,7 @@
         <v>1617.4</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -3008,7 +3407,7 @@
         <v>1592.7</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3047,7 +3446,7 @@
         <v>1462.4</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -3086,7 +3485,7 @@
         <v>1268.0999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3128,7 +3527,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3139,46 +3538,669 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="42.5" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>43</v>
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="3"/>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="3"/>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="3"/>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="3"/>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="3"/>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="3"/>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="3"/>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="3"/>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="3"/>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="3"/>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A61"/>
+    <mergeCell ref="B2:B13"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>960</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f>A1*B1*30</f>
+        <v>57600</v>
+      </c>
+      <c r="B6">
+        <f>A1*C1</f>
+        <v>24000</v>
+      </c>
+      <c r="C6">
+        <f>A6+B6</f>
+        <v>81600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <f>29*5</f>
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/成吉思汗/数值文档.xlsx
+++ b/Docs/成吉思汗/数值文档.xlsx
@@ -5,18 +5,18 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DesignDocs\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DesignDocs\Docs\成吉思汗\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="0" windowWidth="25605" windowHeight="14145" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1035" yWindow="0" windowWidth="25605" windowHeight="14145" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="伤害公式" sheetId="1" r:id="rId1"/>
     <sheet name="图" sheetId="2" r:id="rId2"/>
     <sheet name="小小军团战斗力计算研究" sheetId="3" r:id="rId3"/>
     <sheet name="放开那三国" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="成吉思汗功能列表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="261">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -612,6 +612,388 @@
   </si>
   <si>
     <t>第三个副本结束，第29场战斗结束后升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爵位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启更多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上场武将个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索商店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成吉思汗功能开放次序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启阵容配置，可以更换位置（更换步兵和弓箭手的位置）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启武将功能，武将可以进阶（先进阶主角的队伍）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级礼包（赠送游戏货币）、武将强化（刚刚抽到了高星级武将）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗加速 x2（根据实际情况可能提前）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时已进行的战斗场次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护神升级，开启第一个主动技能（一开始只需要钱就可）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成第一个章节，领取章节奖励（奖励武将或者抽卡次数），上阵人数 +2，开启第一个守护神（一开始只有一个被动技能）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落第一件装备、开启装备强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵人数 + 1， 剧情自动加入新武将。开启商店（每日免费抽武将、首次免费抽RMB武将）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一天上半部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一天下半部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉武将、装备、守护神的过程中，随机掉落一些普通装备，掉落一些武将抽取道具(可以抽武将，用于替换之前部分低星级的武将）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启探索模式，可以刷出特殊副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导，第一场战斗（初始配置4只部队）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成第二个章节，章节奖励。上阵人数增加（7人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续刷战役，此时第三个章节结束。领取奖励。上阵人数增加（8人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时武将开始出现富余，开启武将分解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护神继续升级（需要特殊道具了）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一天，展现游戏核心玩法，画面风格，给予充足奖励。诱导玩家继续玩下去。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索出现神秘商店（可以用RMB或者RMB武将分解货币购买特殊商品），每日签到，其他礼物（目的是希望玩家第二天回来继续玩）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个守护神解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启军团，军团单人任务开启，军团商店开启。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英副本解锁，竞技场单人模式开启。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵人数增加（10）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现主角专属装备</t>
+  </si>
+  <si>
+    <t>武将天赋系统解锁、上阵人数增加（9）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将进阶开放3阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第7天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启远征模式、上阵人数增加（11）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期阶段，战斗难度更大。考虑游戏花费和投入的问题。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏早期阶段，战斗难度适中。玩家逐步熟悉游戏系统。了解游戏玩法，判断适不适合自己玩。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期阶段，战斗难度显著增加。RMB玩家和普通玩家各自寻找自己的定位或者放弃游戏。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三、第四周、第五周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个守护神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四个守护神</t>
+  </si>
+  <si>
+    <t>装备出现冗余，可分解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集武将碎片合成3星武将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集武将碎片合成4星武将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵人数增加（12）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵人数增加（13）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团副本、上阵人数增加（15）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵人数增加（16）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵人数增加（17）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵人数增加（18）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵人数增加（19）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部队解锁，可更换部队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部队进阶解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部队强化解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3星武将饱和，追求4、5星武将阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵人数增加（14）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五个守护神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六个守护神</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -778,14 +1160,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="76">
@@ -1091,11 +1480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="148015904"/>
-        <c:axId val="148045392"/>
+        <c:axId val="162242696"/>
+        <c:axId val="162243088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148015904"/>
+        <c:axId val="162242696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148045392"/>
+        <c:crossAx val="162243088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1112,7 +1501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148045392"/>
+        <c:axId val="162243088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148015904"/>
+        <c:crossAx val="162242696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1492,11 +1881,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="258955408"/>
-        <c:axId val="258963984"/>
+        <c:axId val="162243872"/>
+        <c:axId val="162244264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258955408"/>
+        <c:axId val="162243872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258963984"/>
+        <c:crossAx val="162244264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1514,7 +1903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258963984"/>
+        <c:axId val="162244264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258955408"/>
+        <c:crossAx val="162243872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1894,11 +2283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259015392"/>
-        <c:axId val="259017824"/>
+        <c:axId val="259274800"/>
+        <c:axId val="259275192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259015392"/>
+        <c:axId val="259274800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +2297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259017824"/>
+        <c:crossAx val="259275192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1916,7 +2305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259017824"/>
+        <c:axId val="259275192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +2316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259015392"/>
+        <c:crossAx val="259274800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3538,10 +3927,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3549,10 +3938,12 @@
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="55.5" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="59.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -3565,12 +3956,30 @@
       <c r="E1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
@@ -3579,10 +3988,28 @@
       <c r="E2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -3592,10 +4019,25 @@
       <c r="E3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>H2+G3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" t="s">
         <v>50</v>
       </c>
@@ -3605,10 +4047,25 @@
       <c r="E4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="0">H3+G4</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>51</v>
       </c>
@@ -3618,10 +4075,25 @@
       <c r="E5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>52</v>
       </c>
@@ -3631,10 +4103,25 @@
       <c r="E6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -3644,30 +4131,75 @@
       <c r="E7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>56</v>
       </c>
@@ -3677,10 +4209,25 @@
       <c r="E10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>57</v>
       </c>
@@ -3690,20 +4237,50 @@
       <c r="E11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" t="s">
         <v>59</v>
       </c>
@@ -3713,141 +4290,421 @@
       <c r="E13" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
       <c r="C14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="E15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
+      <c r="F15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
       <c r="C16" t="s">
         <v>62</v>
       </c>
       <c r="E16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
       <c r="C17" t="s">
         <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
       <c r="C18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
       <c r="C19" t="s">
         <v>65</v>
       </c>
       <c r="E19" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="F19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
       <c r="C20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
       <c r="C21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
+      <c r="E21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
       <c r="C22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
       <c r="C23" t="s">
         <v>69</v>
       </c>
       <c r="E23" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
+      <c r="F23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
       <c r="C24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
       <c r="C25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
+      <c r="F25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
       <c r="C26" t="s">
         <v>72</v>
       </c>
       <c r="E26" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
       <c r="C27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
       <c r="C28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
+      <c r="F28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
       <c r="C29" t="s">
         <v>75</v>
       </c>
       <c r="E29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
+      <c r="F29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
       <c r="C30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4"/>
+      <c r="K30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="5"/>
       <c r="C31" t="s">
         <v>77</v>
       </c>
       <c r="E31" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="F31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="4"/>
+      <c r="K31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C32" t="s">
@@ -3856,295 +4713,983 @@
       <c r="E32" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="4"/>
+      <c r="K32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
       <c r="C33" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
+      <c r="F33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
       <c r="C34" t="s">
         <v>86</v>
       </c>
       <c r="E34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
+      <c r="G34">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="4"/>
+      <c r="K34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
       <c r="C35" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
+      <c r="F35" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="4"/>
+      <c r="K35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
       <c r="C36" t="s">
         <v>88</v>
       </c>
       <c r="E36" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
+      <c r="F36" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="4"/>
+      <c r="K36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
       <c r="C37" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
       <c r="C38" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
+      <c r="F38" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="4"/>
+      <c r="K38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="5"/>
       <c r="C39" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="4"/>
+      <c r="K39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="5"/>
       <c r="C40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
+      <c r="F40" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="4"/>
+      <c r="K40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
       <c r="C41" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="F41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
+      <c r="F42" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="4"/>
+      <c r="K42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
       <c r="C43" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
+      <c r="G43">
+        <v>22</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="4"/>
+      <c r="K43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
       <c r="C44" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
+      <c r="F44" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44">
+        <v>22</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="4"/>
+      <c r="K44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
       <c r="C45" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
+      <c r="F45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45">
+        <v>22</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>498</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
       <c r="C46" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
+      <c r="F46" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46">
+        <v>24</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
       <c r="C47" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
+      <c r="F47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G47">
+        <v>24</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
       <c r="C48" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
+      <c r="F48" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48">
+        <v>24</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
       <c r="C49" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
+      <c r="G49">
+        <v>24</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
       <c r="C50" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="3"/>
+      <c r="G50">
+        <v>26</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+      <c r="F51" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51">
+        <v>26</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>646</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="5"/>
       <c r="C52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="3"/>
+      <c r="F52" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G52">
+        <v>26</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>672</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="5"/>
       <c r="C53" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="3"/>
+      <c r="G53">
+        <v>26</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>698</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
       <c r="C54" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="3"/>
+      <c r="G54">
+        <v>28</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>726</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
       <c r="C55" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
+      <c r="G55">
+        <v>28</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>754</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
       <c r="C56" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="3"/>
+      <c r="F56" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56">
+        <v>28</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>782</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
       <c r="C57" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="3"/>
+      <c r="F57" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57">
+        <v>28</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
       <c r="C58" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
+      <c r="G58">
+        <v>30</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
       <c r="C59" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
       <c r="C60" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="3"/>
+      <c r="G60">
+        <v>30</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
       <c r="C61" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F61" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G61">
+        <v>30</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G62">
+        <v>35</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>965</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C63" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G63">
+        <v>35</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C64" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G64">
+        <v>40</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G65">
+        <v>40</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="F66" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G66">
+        <v>45</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G67">
+        <v>45</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G68">
+        <v>50</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H81" si="1">H67+G68</f>
+        <v>1220</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C69" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G69">
+        <v>50</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>1270</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C70" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G70">
+        <v>55</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>1325</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="F71" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G71">
+        <v>55</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>1380</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G72">
+        <v>60</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C73" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G73">
+        <v>60</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C74" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G74">
+        <v>65</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>1565</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G75">
+        <v>65</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>1630</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G76">
+        <v>70</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G77">
+        <v>70</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>1770</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G78">
+        <v>75</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>1845</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G79">
+        <v>75</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C80" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="G80">
+        <v>80</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C81" t="s">
         <v>146</v>
       </c>
+      <c r="F81" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G81">
+        <v>80</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="18">
+    <mergeCell ref="J2:J17"/>
+    <mergeCell ref="I18:I24"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="A42:A61"/>
     <mergeCell ref="B2:B13"/>
+    <mergeCell ref="I2:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="I45:I60"/>
+    <mergeCell ref="J45:J60"/>
+    <mergeCell ref="I61:I81"/>
+    <mergeCell ref="J61:J81"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="J18:J44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4159,43 +5704,227 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>960</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <f>A1*B1*30</f>
-        <v>57600</v>
-      </c>
-      <c r="B6">
-        <f>A1*C1</f>
-        <v>24000</v>
-      </c>
-      <c r="C6">
-        <f>A6+B6</f>
-        <v>81600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <f>29*5</f>
-        <v>145</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/成吉思汗/数值文档.xlsx
+++ b/Docs/成吉思汗/数值文档.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DesignDocs\Docs\成吉思汗\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="0" windowWidth="25605" windowHeight="14145" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="伤害公式" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,9 @@
     <sheet name="小小军团战斗力计算研究" sheetId="3" r:id="rId3"/>
     <sheet name="放开那三国" sheetId="4" r:id="rId4"/>
     <sheet name="成吉思汗功能列表" sheetId="5" r:id="rId5"/>
+    <sheet name="放开那三国战斗力估计" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="293">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -994,6 +990,126 @@
   </si>
   <si>
     <t>第六个守护神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶级</t>
+  </si>
+  <si>
+    <t>阶级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>物防</t>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法防</t>
+  </si>
+  <si>
+    <t>法防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力</t>
+  </si>
+  <si>
+    <t>辛先英</t>
+  </si>
+  <si>
+    <t>估算</t>
+  </si>
+  <si>
+    <t>估算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角LV3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角LV2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角LV3 ＋1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般武将系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命少120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命少111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法防少148</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击少84</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命少1254，物防少1253</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命加3792</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命＋3 物防＋4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1001,7 +1117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1044,6 +1160,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1082,7 +1206,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1159,8 +1283,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1176,9 +1340,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="76">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="116">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -1216,44 +1380,85 @@
     <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1312,37 +1517,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310</c:v>
+                  <c:v>310.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>360</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460</c:v>
+                  <c:v>460.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>510</c:v>
+                  <c:v>510.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,37 +1578,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>305</c:v>
+                  <c:v>305.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>405</c:v>
+                  <c:v>405.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>455</c:v>
+                  <c:v>455.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>505</c:v>
+                  <c:v>505.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,37 +1639,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,12 +1684,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162242696"/>
-        <c:axId val="162243088"/>
+        <c:axId val="2113449912"/>
+        <c:axId val="2113452936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162242696"/>
+        <c:axId val="2113449912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162243088"/>
+        <c:crossAx val="2113452936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1501,7 +1707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162243088"/>
+        <c:axId val="2113452936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162242696"/>
+        <c:crossAx val="2113449912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,7 +1733,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1554,10 +1760,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.7371853563027297E-2"/>
-          <c:y val="1.9543973941368101E-2"/>
-          <c:w val="0.68786964912033599"/>
-          <c:h val="0.87509246197645496"/>
+          <c:x val="0.0473718535630273"/>
+          <c:y val="0.0195439739413681"/>
+          <c:w val="0.687869649120336"/>
+          <c:h val="0.875092461976455"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1587,37 +1793,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,37 +1835,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310</c:v>
+                  <c:v>310.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>360</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460</c:v>
+                  <c:v>460.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>510</c:v>
+                  <c:v>510.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,37 +1896,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,37 +1938,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>305</c:v>
+                  <c:v>305.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>405</c:v>
+                  <c:v>405.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>455</c:v>
+                  <c:v>455.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>505</c:v>
+                  <c:v>505.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,37 +1999,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,34 +2044,34 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4545454545454541</c:v>
+                  <c:v>5.454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2380952380952381</c:v>
+                  <c:v>5.238095238095238</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.161290322580645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1219512195121952</c:v>
+                  <c:v>5.121951219512195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0980392156862742</c:v>
+                  <c:v>5.098039215686274</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.081967213114754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.070422535211268</c:v>
+                  <c:v>5.070422535211267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0617283950617287</c:v>
+                  <c:v>5.061728395061728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0549450549450547</c:v>
+                  <c:v>5.054945054945055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0495049504950495</c:v>
+                  <c:v>5.04950495049505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,12 +2086,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162243872"/>
-        <c:axId val="162244264"/>
+        <c:axId val="2113475208"/>
+        <c:axId val="2113478184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162243872"/>
+        <c:axId val="2113475208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,7 +2102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162244264"/>
+        <c:crossAx val="2113478184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1903,7 +2110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162244264"/>
+        <c:axId val="2113478184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,7 +2121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162243872"/>
+        <c:crossAx val="2113475208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1929,7 +2136,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1956,10 +2163,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.7371853563027297E-2"/>
-          <c:y val="1.9543973941368101E-2"/>
-          <c:w val="0.68786964912033599"/>
-          <c:h val="0.87509246197645496"/>
+          <c:x val="0.0473718535630273"/>
+          <c:y val="0.0195439739413681"/>
+          <c:w val="0.687869649120336"/>
+          <c:h val="0.875092461976455"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1989,37 +2196,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,37 +2238,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310</c:v>
+                  <c:v>310.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>360</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460</c:v>
+                  <c:v>460.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>510</c:v>
+                  <c:v>510.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,37 +2299,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,37 +2341,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>305</c:v>
+                  <c:v>305.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>405</c:v>
+                  <c:v>405.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>455</c:v>
+                  <c:v>455.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>505</c:v>
+                  <c:v>505.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,37 +2402,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2237,37 +2444,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.636363636363637</c:v>
+                  <c:v>13.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38.70967741935484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.658536585365852</c:v>
+                  <c:v>53.65853658536585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.745098039215691</c:v>
+                  <c:v>62.7450980392157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.852459016393453</c:v>
+                  <c:v>68.85245901639345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.239436619718305</c:v>
+                  <c:v>73.2394366197183</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.543209876543202</c:v>
+                  <c:v>76.5432098765432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.120879120879124</c:v>
+                  <c:v>79.12087912087912</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.188118811881168</c:v>
+                  <c:v>81.18811881188117</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>82.88288288288291</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84.297520661157023</c:v>
+                  <c:v>84.297520661157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,12 +2489,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259274800"/>
-        <c:axId val="259275192"/>
+        <c:axId val="2113513736"/>
+        <c:axId val="2113516712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259274800"/>
+        <c:axId val="2113513736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259275192"/>
+        <c:crossAx val="2113516712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2305,7 +2513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259275192"/>
+        <c:axId val="2113516712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +2524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259274800"/>
+        <c:crossAx val="2113513736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2331,7 +2539,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2764,16 +2972,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="41.625" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="57" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2793,7 +3001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="35" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2813,7 +3021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="28" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2831,7 +3039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2851,7 +3059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2876,7 +3084,7 @@
         <v>13.636363636363637</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>10</v>
       </c>
@@ -2901,7 +3109,7 @@
         <v>38.70967741935484</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>20</v>
       </c>
@@ -2926,7 +3134,7 @@
         <v>53.658536585365852</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>30</v>
       </c>
@@ -2951,7 +3159,7 @@
         <v>62.745098039215691</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>40</v>
       </c>
@@ -2976,7 +3184,7 @@
         <v>68.852459016393453</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>50</v>
       </c>
@@ -3001,7 +3209,7 @@
         <v>73.239436619718305</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>60</v>
       </c>
@@ -3026,7 +3234,7 @@
         <v>76.543209876543202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>70</v>
       </c>
@@ -3051,7 +3259,7 @@
         <v>79.120879120879124</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>80</v>
       </c>
@@ -3076,7 +3284,7 @@
         <v>81.188118811881168</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>90</v>
       </c>
@@ -3101,7 +3309,7 @@
         <v>82.88288288288291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>100</v>
       </c>
@@ -3146,9 +3354,9 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -3181,9 +3389,9 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3212,7 +3420,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3250,7 +3458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3289,7 +3497,7 @@
         <v>166.422</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3328,7 +3536,7 @@
         <v>367.8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3367,7 +3575,7 @@
         <v>382.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3406,7 +3614,7 @@
         <v>1885.46</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3445,7 +3653,7 @@
         <v>2039.22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3484,7 +3692,7 @@
         <v>1783.12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3523,7 +3731,7 @@
         <v>1723.7200000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3562,7 +3770,7 @@
         <v>1950.06</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -3601,7 +3809,7 @@
         <v>2125.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3640,7 +3848,7 @@
         <v>1717.02</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3679,7 +3887,7 @@
         <v>1547.88</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3718,7 +3926,7 @@
         <v>1859.4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -3757,7 +3965,7 @@
         <v>1617.4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -3796,7 +4004,7 @@
         <v>1592.7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3835,7 +4043,7 @@
         <v>1462.4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -3874,7 +4082,7 @@
         <v>1268.0999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3916,7 +4124,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3929,21 +4137,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="55.5" customWidth="1"/>
-    <col min="6" max="6" width="59.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="59.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="42.75">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -3975,7 +4183,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
@@ -4007,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" t="s">
@@ -4035,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
@@ -4063,7 +4271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="28.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
@@ -4091,7 +4299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" t="s">
@@ -4119,7 +4327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="28.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
@@ -4147,7 +4355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="28.5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
@@ -4172,7 +4380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" t="s">
@@ -4197,7 +4405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="28.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
@@ -4225,7 +4433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
@@ -4253,7 +4461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="42.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" t="s">
@@ -4278,7 +4486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="28.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" t="s">
@@ -4306,7 +4514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="28.5">
       <c r="A14" s="5"/>
       <c r="C14" t="s">
         <v>60</v>
@@ -4327,7 +4535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="5"/>
       <c r="C15" t="s">
         <v>61</v>
@@ -4353,7 +4561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="5"/>
       <c r="C16" t="s">
         <v>62</v>
@@ -4377,7 +4585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="28.5">
       <c r="A17" s="5"/>
       <c r="C17" t="s">
         <v>63</v>
@@ -4401,7 +4609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="5"/>
       <c r="C18" t="s">
         <v>64</v>
@@ -4423,7 +4631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="C19" t="s">
         <v>65</v>
@@ -4447,7 +4655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="5"/>
       <c r="C20" t="s">
         <v>66</v>
@@ -4465,7 +4673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="C21" t="s">
         <v>67</v>
@@ -4489,7 +4697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="C22" t="s">
         <v>68</v>
@@ -4507,7 +4715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="5"/>
       <c r="C23" t="s">
         <v>69</v>
@@ -4531,7 +4739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="5"/>
       <c r="C24" t="s">
         <v>70</v>
@@ -4549,7 +4757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="C25" t="s">
         <v>71</v>
@@ -4572,7 +4780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="C26" t="s">
         <v>72</v>
@@ -4596,7 +4804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="C27" t="s">
         <v>73</v>
@@ -4614,7 +4822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" s="5"/>
       <c r="C28" t="s">
         <v>74</v>
@@ -4635,7 +4843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" s="5"/>
       <c r="C29" t="s">
         <v>75</v>
@@ -4661,7 +4869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="A30" s="5"/>
       <c r="C30" t="s">
         <v>76</v>
@@ -4679,7 +4887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11">
       <c r="A31" s="5"/>
       <c r="C31" t="s">
         <v>77</v>
@@ -4703,7 +4911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11">
       <c r="A32" s="5" t="s">
         <v>105</v>
       </c>
@@ -4726,7 +4934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33" s="5"/>
       <c r="C33" t="s">
         <v>85</v>
@@ -4749,7 +4957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34" s="5"/>
       <c r="C34" t="s">
         <v>86</v>
@@ -4770,7 +4978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35" s="5"/>
       <c r="C35" t="s">
         <v>87</v>
@@ -4791,7 +4999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36" s="5"/>
       <c r="C36" t="s">
         <v>88</v>
@@ -4815,7 +5023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" s="5"/>
       <c r="C37" t="s">
         <v>89</v>
@@ -4835,7 +5043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" s="5"/>
       <c r="C38" t="s">
         <v>90</v>
@@ -4856,7 +5064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39" s="5"/>
       <c r="C39" t="s">
         <v>91</v>
@@ -4874,7 +5082,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40" s="5"/>
       <c r="C40" t="s">
         <v>92</v>
@@ -4895,7 +5103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41" s="5"/>
       <c r="C41" t="s">
         <v>93</v>
@@ -4918,7 +5126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42" s="5" t="s">
         <v>116</v>
       </c>
@@ -4941,7 +5149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43" s="5"/>
       <c r="C43" t="s">
         <v>95</v>
@@ -4959,7 +5167,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44" s="5"/>
       <c r="C44" t="s">
         <v>96</v>
@@ -4980,7 +5188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="A45" s="5"/>
       <c r="C45" t="s">
         <v>97</v>
@@ -5005,7 +5213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11">
       <c r="A46" s="5"/>
       <c r="C46" t="s">
         <v>98</v>
@@ -5026,7 +5234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="A47" s="5"/>
       <c r="C47" t="s">
         <v>99</v>
@@ -5047,7 +5255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48" s="5"/>
       <c r="C48" t="s">
         <v>100</v>
@@ -5068,7 +5276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11">
       <c r="A49" s="5"/>
       <c r="C49" t="s">
         <v>101</v>
@@ -5086,7 +5294,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11">
       <c r="A50" s="5"/>
       <c r="C50" t="s">
         <v>102</v>
@@ -5104,7 +5312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11">
       <c r="A51" s="5"/>
       <c r="C51" t="s">
         <v>103</v>
@@ -5125,7 +5333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11">
       <c r="A52" s="5"/>
       <c r="C52" t="s">
         <v>106</v>
@@ -5146,7 +5354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11">
       <c r="A53" s="5"/>
       <c r="C53" t="s">
         <v>107</v>
@@ -5164,7 +5372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11">
       <c r="A54" s="5"/>
       <c r="C54" t="s">
         <v>108</v>
@@ -5182,7 +5390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11">
       <c r="A55" s="5"/>
       <c r="C55" t="s">
         <v>109</v>
@@ -5200,7 +5408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11">
       <c r="A56" s="5"/>
       <c r="C56" t="s">
         <v>110</v>
@@ -5221,7 +5429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11">
       <c r="A57" s="5"/>
       <c r="C57" t="s">
         <v>111</v>
@@ -5242,7 +5450,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11">
       <c r="A58" s="5"/>
       <c r="C58" t="s">
         <v>112</v>
@@ -5260,7 +5468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11">
       <c r="A59" s="5"/>
       <c r="C59" t="s">
         <v>113</v>
@@ -5278,7 +5486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11">
       <c r="A60" s="5"/>
       <c r="C60" t="s">
         <v>114</v>
@@ -5296,7 +5504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11">
       <c r="A61" s="5"/>
       <c r="C61" t="s">
         <v>115</v>
@@ -5321,7 +5529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11">
       <c r="C62" t="s">
         <v>127</v>
       </c>
@@ -5338,7 +5546,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11">
       <c r="C63" t="s">
         <v>128</v>
       </c>
@@ -5355,7 +5563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11">
       <c r="C64" t="s">
         <v>129</v>
       </c>
@@ -5372,7 +5580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:11">
       <c r="C65" t="s">
         <v>130</v>
       </c>
@@ -5389,7 +5597,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:11">
       <c r="C66" t="s">
         <v>131</v>
       </c>
@@ -5409,7 +5617,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:11">
       <c r="C67" t="s">
         <v>132</v>
       </c>
@@ -5426,7 +5634,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:11">
       <c r="C68" t="s">
         <v>133</v>
       </c>
@@ -5443,7 +5651,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:11">
       <c r="C69" t="s">
         <v>134</v>
       </c>
@@ -5460,7 +5668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:11">
       <c r="C70" t="s">
         <v>135</v>
       </c>
@@ -5477,7 +5685,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:11">
       <c r="C71" t="s">
         <v>136</v>
       </c>
@@ -5497,7 +5705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:11">
       <c r="C72" t="s">
         <v>137</v>
       </c>
@@ -5514,7 +5722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:11">
       <c r="C73" t="s">
         <v>138</v>
       </c>
@@ -5531,7 +5739,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:11">
       <c r="C74" t="s">
         <v>139</v>
       </c>
@@ -5548,7 +5756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:11">
       <c r="C75" t="s">
         <v>140</v>
       </c>
@@ -5565,7 +5773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:11">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -5582,7 +5790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:11">
       <c r="C77" t="s">
         <v>142</v>
       </c>
@@ -5599,7 +5807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:11">
       <c r="C78" t="s">
         <v>143</v>
       </c>
@@ -5616,7 +5824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:11">
       <c r="C79" t="s">
         <v>144</v>
       </c>
@@ -5633,7 +5841,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:11">
       <c r="C80" t="s">
         <v>145</v>
       </c>
@@ -5650,7 +5858,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:11">
       <c r="C81" t="s">
         <v>146</v>
       </c>
@@ -5672,6 +5880,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="J18:J44"/>
     <mergeCell ref="J2:J17"/>
     <mergeCell ref="I18:I24"/>
     <mergeCell ref="A2:A31"/>
@@ -5688,12 +5898,10 @@
     <mergeCell ref="I29:I32"/>
     <mergeCell ref="I33:I36"/>
     <mergeCell ref="I37:I40"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="J18:J44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5710,219 +5918,219 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="B29" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="B32" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="B35" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="B37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="B44" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="B45" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="B48" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="B49" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="B53" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="B54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="B55" t="s">
         <v>196</v>
       </c>
@@ -5930,6 +6138,435 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N1">
+        <v>167113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>420</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>0.27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>632</v>
+      </c>
+      <c r="E3">
+        <v>690</v>
+      </c>
+      <c r="F3">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1.03</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>210</v>
+      </c>
+      <c r="M4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>279</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>0.88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>280</v>
+      </c>
+      <c r="M6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="L7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>664</v>
+      </c>
+      <c r="E8">
+        <v>686</v>
+      </c>
+      <c r="F8">
+        <v>1216</v>
+      </c>
+      <c r="L8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9">
+        <f>D2*$A$2 + D3*$A$3 + D4* $A$4 + D5*$A$5 + D6*$A$6</f>
+        <v>678.4</v>
+      </c>
+      <c r="E9">
+        <f>E2*$A$2 + E3*$A$3 + E4* $A$4 + E5*$A$5 + E6*$A$6</f>
+        <v>704</v>
+      </c>
+      <c r="F9">
+        <f>F2*$A$2 + F3*$A$3 + F4* $A$4 + F5*$A$5 + F6*$A$6</f>
+        <v>1541.26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>46531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>10262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="L11" t="s">
+        <v>283</v>
+      </c>
+      <c r="M11">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="L12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M12">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>325</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>0.18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="7">
+        <v>677</v>
+      </c>
+      <c r="E14" s="7">
+        <v>768</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="N14">
+        <v>167066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>1.03</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="7">
+        <v>60</v>
+      </c>
+      <c r="E15" s="7">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="7">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="I17" t="s">
+        <v>284</v>
+      </c>
+      <c r="J17">
+        <f>N1-N14</f>
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
+        <v>285</v>
+      </c>
+      <c r="M17">
+        <f>47/120</f>
+        <v>0.39166666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="I18" t="s">
+        <v>286</v>
+      </c>
+      <c r="J18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L18" t="s">
+        <v>268</v>
+      </c>
+      <c r="M18">
+        <f>131/148</f>
+        <v>0.88513513513513509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="C19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="7">
+        <v>593</v>
+      </c>
+      <c r="E19" s="7">
+        <v>627</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="I19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" t="s">
+        <v>288</v>
+      </c>
+      <c r="M19">
+        <f>87/84</f>
+        <v>1.0357142857142858</v>
+      </c>
+      <c r="O19">
+        <f>7374 - 7287</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="C20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20">
+        <f>D13*$A$13 + D14*$A$14 + D15* $A$15 + D16*$A$16 + D17*$A$17</f>
+        <v>538.06000000000006</v>
+      </c>
+      <c r="E20">
+        <f>E13*$A$2 + E14*$A$3 + E15* $A$4 + E16*$A$5 + E17*$A$6</f>
+        <v>731.6</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="I20" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" t="s">
+        <v>283</v>
+      </c>
+      <c r="O20">
+        <f>7287-7118</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="I23" t="s">
+        <v>291</v>
+      </c>
+      <c r="M23">
+        <f>1033/3792</f>
+        <v>0.27241561181434598</v>
+      </c>
+      <c r="O23">
+        <v>32624</v>
+      </c>
+      <c r="P23">
+        <f>32624-33657</f>
+        <v>-1033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="I24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O24">
+        <v>33657</v>
+      </c>
+      <c r="P24">
+        <v>33662</v>
+      </c>
+      <c r="Q24">
+        <f>P24-O24</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Docs/成吉思汗/数值文档.xlsx
+++ b/Docs/成吉思汗/数值文档.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="2160" windowWidth="24400" windowHeight="14220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="伤害公式" sheetId="1" r:id="rId1"/>
     <sheet name="图" sheetId="2" r:id="rId2"/>
     <sheet name="小小军团战斗力计算研究" sheetId="3" r:id="rId3"/>
-    <sheet name="放开那三国" sheetId="4" r:id="rId4"/>
-    <sheet name="成吉思汗功能列表" sheetId="5" r:id="rId5"/>
-    <sheet name="放开那三国战斗力估计" sheetId="6" r:id="rId6"/>
+    <sheet name="最大上阵英雄数" sheetId="7" r:id="rId4"/>
+    <sheet name="放开那三国" sheetId="4" r:id="rId5"/>
+    <sheet name="成吉思汗功能列表" sheetId="5" r:id="rId6"/>
+    <sheet name="放开那三国战斗力估计" sheetId="6" r:id="rId7"/>
+    <sheet name="总体属性成长" sheetId="8" r:id="rId8"/>
+    <sheet name="开场AI逻辑" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="350">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1110,6 +1113,234 @@
   </si>
   <si>
     <t>生命＋3 物防＋4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵英雄数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄幸运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄躲闪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨拉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性换算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果以1血为基础，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式为： 攻击 ＊ 减伤率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中减伤率为：防御／1000 ＋ 防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1168,6 +1399,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1182,7 +1421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1205,8 +1444,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="116">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1323,14 +1571,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="116"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1340,9 +1623,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="116">
+  <cellStyles count="149">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -1400,6 +1682,22 @@
     <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -1457,6 +1755,23 @@
     <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="链接单元格" xfId="116" builtinId="24"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -1517,37 +1832,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.0</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.0</c:v>
+                  <c:v>440.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.0</c:v>
+                  <c:v>540.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310.0</c:v>
+                  <c:v>640.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>360.0</c:v>
+                  <c:v>740.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410.0</c:v>
+                  <c:v>840.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460.0</c:v>
+                  <c:v>940.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>510.0</c:v>
+                  <c:v>1040.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,37 +1893,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>205.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>305.0</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355.0</c:v>
+                  <c:v>285.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>455.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>505.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,37 +1954,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>335.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>395.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0</c:v>
+                  <c:v>455.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>515.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0</c:v>
+                  <c:v>575.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0</c:v>
+                  <c:v>635.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,11 +2001,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113449912"/>
-        <c:axId val="2113452936"/>
+        <c:axId val="1946786344"/>
+        <c:axId val="1945482952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113449912"/>
+        <c:axId val="1946786344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +2014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113452936"/>
+        <c:crossAx val="1945482952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1707,7 +2022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113452936"/>
+        <c:axId val="1945482952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,13 +2033,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113449912"/>
+        <c:crossAx val="1946786344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1835,37 +2151,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.0</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.0</c:v>
+                  <c:v>440.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.0</c:v>
+                  <c:v>540.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310.0</c:v>
+                  <c:v>640.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>360.0</c:v>
+                  <c:v>740.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410.0</c:v>
+                  <c:v>840.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460.0</c:v>
+                  <c:v>940.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>510.0</c:v>
+                  <c:v>1040.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,37 +2254,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>205.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>305.0</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355.0</c:v>
+                  <c:v>285.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>455.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>505.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,37 +2357,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.5</c:v>
+                  <c:v>27.77777777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.454545454545454</c:v>
+                  <c:v>15.55555555555556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.238095238095238</c:v>
+                  <c:v>14.11764705882353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.161290322580645</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.121951219512195</c:v>
+                  <c:v>13.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.098039215686274</c:v>
+                  <c:v>13.17073170731707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.081967213114754</c:v>
+                  <c:v>13.06122448979592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.070422535211267</c:v>
+                  <c:v>12.98245614035088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.061728395061728</c:v>
+                  <c:v>12.92307692307692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.054945054945055</c:v>
+                  <c:v>12.87671232876712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.04950495049505</c:v>
+                  <c:v>12.83950617283951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,11 +2404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113475208"/>
-        <c:axId val="2113478184"/>
+        <c:axId val="2145950984"/>
+        <c:axId val="2145953960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113475208"/>
+        <c:axId val="2145950984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113478184"/>
+        <c:crossAx val="2145953960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2110,7 +2426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113478184"/>
+        <c:axId val="2145953960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,13 +2437,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113475208"/>
+        <c:crossAx val="2145950984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2238,37 +2555,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.0</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.0</c:v>
+                  <c:v>440.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.0</c:v>
+                  <c:v>540.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310.0</c:v>
+                  <c:v>640.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>360.0</c:v>
+                  <c:v>740.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410.0</c:v>
+                  <c:v>840.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460.0</c:v>
+                  <c:v>940.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>510.0</c:v>
+                  <c:v>1040.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2341,37 +2658,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>205.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>255.0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>305.0</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355.0</c:v>
+                  <c:v>285.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>455.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>505.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,37 +2761,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.63636363636364</c:v>
+                  <c:v>45.87155963302752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.70967741935484</c:v>
+                  <c:v>96.55172413793105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.65853658536585</c:v>
+                  <c:v>129.7297297297297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.7450980392157</c:v>
+                  <c:v>151.1111111111111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.85245901639345</c:v>
+                  <c:v>166.0377358490566</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.2394366197183</c:v>
+                  <c:v>177.0491803278689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.5432098765432</c:v>
+                  <c:v>185.5072463768116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.12087912087912</c:v>
+                  <c:v>192.2077922077922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.18811881188117</c:v>
+                  <c:v>197.6470588235294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82.88288288288291</c:v>
+                  <c:v>202.1505376344086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84.297520661157</c:v>
+                  <c:v>205.9405940594059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,11 +2808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113513736"/>
-        <c:axId val="2113516712"/>
+        <c:axId val="2146191512"/>
+        <c:axId val="2146194488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113513736"/>
+        <c:axId val="2146191512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,7 +2822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113516712"/>
+        <c:crossAx val="2146194488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2513,7 +2830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113516712"/>
+        <c:axId val="2146194488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,13 +2841,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113513736"/>
+        <c:crossAx val="2146191512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2968,13 +3286,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
@@ -3006,7 +3324,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -3026,10 +3344,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -3065,23 +3383,23 @@
       </c>
       <c r="B7">
         <f>$B$2 + A7*$B$3</f>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <f>$C$2 + A7*$C$3</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <f>B7-C7</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <f>$E$3 *B7/C7</f>
-        <v>7.5</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="F7">
         <f>B7*(1-C7/($F$3+C7))</f>
-        <v>13.636363636363637</v>
+        <v>45.871559633027523</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3090,23 +3408,23 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B17" si="0">$B$2 + A8*$B$3</f>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C17" si="1">$C$2 + A8*$C$3</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D17" si="2">B8-C8</f>
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E17" si="3">$E$3 *B8/C8</f>
-        <v>5.4545454545454541</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F17" si="4">B8*(1-C8/($F$3+C8))</f>
-        <v>38.70967741935484</v>
+        <v>96.551724137931046</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3115,23 +3433,23 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>5.2380952380952381</v>
+        <v>14.117647058823529</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>53.658536585365852</v>
+        <v>129.72972972972974</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3140,23 +3458,23 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>5.161290322580645</v>
+        <v>13.6</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>62.745098039215691</v>
+        <v>151.11111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3165,23 +3483,23 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>440</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>275</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>5.1219512195121952</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>68.852459016393453</v>
+        <v>166.03773584905662</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3190,23 +3508,23 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>5.0980392156862742</v>
+        <v>13.170731707317072</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>73.239436619718305</v>
+        <v>177.04918032786887</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3215,23 +3533,23 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>640</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>395</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>5.081967213114754</v>
+        <v>13.061224489795919</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>76.543209876543202</v>
+        <v>185.50724637681157</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3240,23 +3558,23 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>740</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>455</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>5.070422535211268</v>
+        <v>12.982456140350877</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>79.120879120879124</v>
+        <v>192.20779220779218</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3265,23 +3583,23 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>840</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>405</v>
+        <v>325</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>515</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>5.0617283950617287</v>
+        <v>12.923076923076923</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>81.188118811881168</v>
+        <v>197.64705882352945</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3290,23 +3608,23 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>940</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>575</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>5.0549450549450547</v>
+        <v>12.876712328767123</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>82.88288288288291</v>
+        <v>202.15053763440864</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3315,23 +3633,23 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>1040</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>635</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>5.0495049504950495</v>
+        <v>12.839506172839506</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>84.297520661157023</v>
+        <v>205.9405940594059</v>
       </c>
     </row>
   </sheetData>
@@ -3350,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3383,742 +3701,995 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="4.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C1">
-        <v>0.1</v>
-      </c>
-      <c r="D1">
-        <v>0.5</v>
-      </c>
-      <c r="E1">
-        <v>0.1</v>
-      </c>
-      <c r="F1">
-        <v>0.1</v>
-      </c>
-      <c r="H1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I1">
-        <v>0.02</v>
-      </c>
-      <c r="J1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="C1" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="R1" t="s">
+        <v>293</v>
+      </c>
+      <c r="S1">
+        <f>(393-387)/98</f>
+        <v>6.1224489795918366E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="O2" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="R2" t="s">
+        <v>294</v>
+      </c>
+      <c r="S2">
+        <f>(399-393)/35</f>
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16" thickTop="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>492</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>186</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>42</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
         <v>513</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>149</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>50</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>370</v>
       </c>
-      <c r="M3">
-        <f xml:space="preserve"> B3*$B$1 + C3 *$C$1 + D3*$D$1 + E3*$E$1 +F3*$F$1 + G3 * (H3*$H$1 + I3*$I$1 + J3 * $J$1)</f>
-        <v>166.422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="N3">
+        <f xml:space="preserve"> C3*$C$1 + D3 *$D$1 + E3*$E$1 + F3*$F$1 +G3*$G$1 + H3 * (I3*$I$1 + J3*$J$1 + K3 * $K$1)</f>
+        <v>420.41600000000005</v>
+      </c>
+      <c r="O3">
+        <f>L3-N3</f>
+        <v>-50.416000000000054</v>
+      </c>
+      <c r="R3" t="s">
+        <v>295</v>
+      </c>
+      <c r="S3">
+        <f>(449-399 - 0.17*22)/1214</f>
+        <v>3.8105436573311363E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>553</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>198</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>44</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>25</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
         <v>513</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>149</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>50</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>373</v>
       </c>
-      <c r="M4">
-        <f>(B4+C4+D4 + E4 + F4) * 0.1 + G4 * (H4 + I4 + J4) * 0.04</f>
-        <v>367.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="N4">
+        <f t="shared" ref="N4:N19" si="0" xml:space="preserve"> C4*$C$1 + D4 *$D$1 + E4*$E$1 + F4*$F$1 +G4*$G$1 + H4 * (I4*$I$1 + J4*$J$1 + K4 * $K$1)</f>
+        <v>423.79400000000004</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O19" si="1">L4-N4</f>
+        <v>-50.79400000000004</v>
+      </c>
+      <c r="R4" t="s">
+        <v>300</v>
+      </c>
+      <c r="S4">
+        <f>(1766-1754-14*0.17)/5</f>
+        <v>1.9239999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>553</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>198</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>44</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>25</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
         <v>545</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>153</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>51</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>387</v>
       </c>
-      <c r="M5">
-        <f>(B5+C5+D5 + E5 + F5) * 0.1 + G5 * (H5 + I5 + J5) * 0.04</f>
-        <v>382.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>436.37400000000008</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>-49.37400000000008</v>
+      </c>
+      <c r="R5" t="s">
+        <v>301</v>
+      </c>
+      <c r="S5">
+        <f>(1997-1969 - 196 * 0.06 - 5 * 1.92)/5</f>
+        <v>1.3280000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5533</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1084</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>182</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>45</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>25</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1909</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>477</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>111</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1639</v>
       </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M19" si="0">(B6+C6+D6 + E6 + F6) * 0.1 + G6 * (H6 + I6 + J6) * 0.04</f>
-        <v>1885.46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1663.7460000000001</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>-24.746000000000095</v>
+      </c>
+      <c r="R6" t="s">
+        <v>303</v>
+      </c>
+      <c r="S6">
+        <f xml:space="preserve"> (15/61)</f>
+        <v>0.24590163934426229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>7337</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1059</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>204</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>35</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2148</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>402</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>113</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1704</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>2039.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1626.6680000000001</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>77.33199999999988</v>
+      </c>
+      <c r="R7" t="s">
+        <v>304</v>
+      </c>
+      <c r="S7">
+        <f>(11-29*S6)/4</f>
+        <v>0.96721311475409832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>5274</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>585</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>210</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2148</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>402</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>113</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1485</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>1783.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1475.2540000000001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>9.7459999999998672</v>
+      </c>
+      <c r="R8" t="s">
+        <v>305</v>
+      </c>
+      <c r="S8">
+        <f>13 - 24*S6 - 6*S7</f>
+        <v>1.2950819672131155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>5411</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>839</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>183</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>35</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1984</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>375</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>84</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1390</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>1723.7200000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1395.8139999999999</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>-5.8139999999998508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>7708</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>723</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>277</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>30</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1658</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>488</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>91</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1609</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>1950.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>1617.4780000000001</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>-8.4780000000000655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>4681</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>803</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>196</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>35</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>20</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1767</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>543</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>115</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1990</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>2125.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>2052.6259999999997</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>-62.625999999999749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>5208</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>824</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>180</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>35</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2014</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>379</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>85</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1397</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>1717.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>4134</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>805</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>146</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>11</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1610</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>650</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>92</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1391</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>1547.88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1504.712</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>-113.71199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>7628</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>924</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>235</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>25</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1955</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>372</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>106</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1479</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>1859.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>1456.0540000000001</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>22.945999999999913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>4834</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>452</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>191</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>30</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>15</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2148</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>402</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>113</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1346</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>1617.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>1344.902</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>1.0979999999999563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3984</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>455</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>144</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>15</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>12</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1795</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>454</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>106</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1413</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>1592.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>1443.6119999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>-30.611999999999853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>4506</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>888</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>183</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>35</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>20</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1710</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>436</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>102</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1242</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>1462.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>1284.6180000000002</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>-42.618000000000166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>3780</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>755</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>130</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
       </c>
       <c r="F18">
         <v>20</v>
       </c>
       <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
         <v>10</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1350</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>563</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>81</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1113</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>1268.0999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>1211.8399999999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>-98.839999999999918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>3516</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>350</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>152</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>30</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>11</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1635</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>322</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>93</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1127</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>1308.3</v>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>1141.258</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>-14.258000000000038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20">
+        <v>1463</v>
+      </c>
+      <c r="D20">
+        <v>244</v>
+      </c>
+      <c r="E20">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>396</v>
+      </c>
+      <c r="J20">
+        <v>181</v>
+      </c>
+      <c r="K20">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>390</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20" si="2" xml:space="preserve"> C20*$C$1 + D20 *$D$1 + E20*$E$1 + F20*$F$1 +G20*$G$1 + H20 * (I20*$I$1 + J20*$J$1 + K20 * $K$1)</f>
+        <v>476.58399999999995</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20" si="3">L20-N20</f>
+        <v>-86.583999999999946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="F25">
+        <f>(1691-1685)/98</f>
+        <v>6.1224489795918366E-2</v>
+      </c>
+      <c r="H25">
+        <f>6/98</f>
+        <v>6.1224489795918366E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="F26">
+        <f>16/98</f>
+        <v>0.16326530612244897</v>
       </c>
     </row>
   </sheetData>
@@ -4134,6 +4705,155 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
@@ -4151,7 +4871,7 @@
     <col min="10" max="10" width="23.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.75">
+    <row r="1" spans="1:11" ht="45">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -4184,10 +4904,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
@@ -4205,10 +4925,10 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>221</v>
       </c>
       <c r="K2">
@@ -4216,8 +4936,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -4237,15 +4957,15 @@
         <f>H2+G3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>50</v>
       </c>
@@ -4265,15 +4985,15 @@
         <f t="shared" ref="H4:H67" si="0">H3+G4</f>
         <v>2</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
       <c r="K4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:11" ht="30">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>51</v>
       </c>
@@ -4293,15 +5013,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
       <c r="K5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>52</v>
       </c>
@@ -4321,15 +5041,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:11" ht="30">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -4349,15 +5069,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="K7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+    <row r="8" spans="1:11" ht="30">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -4374,15 +5094,15 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
       <c r="K8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>55</v>
       </c>
@@ -4399,15 +5119,15 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
       <c r="K9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:11" ht="30">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>56</v>
       </c>
@@ -4427,15 +5147,15 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
       <c r="K10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>57</v>
       </c>
@@ -4455,15 +5175,15 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
       <c r="K11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="42.75">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+    <row r="12" spans="1:11" ht="45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -4480,15 +5200,15 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
       <c r="K12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+    <row r="13" spans="1:11" ht="30">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>59</v>
       </c>
@@ -4508,14 +5228,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
       <c r="K13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:11" ht="30">
+      <c r="A14" s="7"/>
       <c r="C14" t="s">
         <v>60</v>
       </c>
@@ -4529,14 +5249,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
       <c r="K14">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="C15" t="s">
         <v>61</v>
       </c>
@@ -4553,16 +5273,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="6"/>
       <c r="K15">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="C16" t="s">
         <v>62</v>
       </c>
@@ -4579,14 +5299,14 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
       <c r="K16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:11" ht="30">
+      <c r="A17" s="7"/>
       <c r="C17" t="s">
         <v>63</v>
       </c>
@@ -4603,14 +5323,14 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
       <c r="K17">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -4621,10 +5341,10 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="6" t="s">
         <v>239</v>
       </c>
       <c r="K18">
@@ -4632,7 +5352,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
       <c r="C19" t="s">
         <v>65</v>
       </c>
@@ -4649,14 +5369,14 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
       <c r="K19">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -4667,14 +5387,14 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
       <c r="K20">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="C21" t="s">
         <v>67</v>
       </c>
@@ -4691,14 +5411,14 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
       <c r="K21">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="C22" t="s">
         <v>68</v>
       </c>
@@ -4709,14 +5429,14 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
       <c r="K22">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="C23" t="s">
         <v>69</v>
       </c>
@@ -4733,14 +5453,14 @@
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
       <c r="K23">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="C24" t="s">
         <v>70</v>
       </c>
@@ -4751,14 +5471,14 @@
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
       <c r="K24">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="5"/>
+      <c r="A25" s="7"/>
       <c r="C25" t="s">
         <v>71</v>
       </c>
@@ -4772,16 +5492,16 @@
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="6"/>
       <c r="K25">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="5"/>
+      <c r="A26" s="7"/>
       <c r="C26" t="s">
         <v>72</v>
       </c>
@@ -4798,14 +5518,14 @@
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="4"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
       <c r="K26">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="5"/>
+      <c r="A27" s="7"/>
       <c r="C27" t="s">
         <v>73</v>
       </c>
@@ -4816,14 +5536,14 @@
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6"/>
       <c r="K27">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="C28" t="s">
         <v>74</v>
       </c>
@@ -4837,14 +5557,14 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6"/>
       <c r="K28">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="5"/>
+      <c r="A29" s="7"/>
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -4861,16 +5581,16 @@
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="6"/>
       <c r="K29">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="5"/>
+      <c r="A30" s="7"/>
       <c r="C30" t="s">
         <v>76</v>
       </c>
@@ -4881,14 +5601,14 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="6"/>
       <c r="K30">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="5"/>
+      <c r="A31" s="7"/>
       <c r="C31" t="s">
         <v>77</v>
       </c>
@@ -4905,14 +5625,14 @@
         <f t="shared" si="0"/>
         <v>226</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="4"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6"/>
       <c r="K31">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C32" t="s">
@@ -4928,14 +5648,14 @@
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="4"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="6"/>
       <c r="K32">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
       <c r="C33" t="s">
         <v>85</v>
       </c>
@@ -4949,16 +5669,16 @@
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="6"/>
       <c r="K33">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="C34" t="s">
         <v>86</v>
       </c>
@@ -4972,14 +5692,14 @@
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="4"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="6"/>
       <c r="K34">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="C35" t="s">
         <v>87</v>
       </c>
@@ -4993,14 +5713,14 @@
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="4"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="6"/>
       <c r="K35">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
       <c r="C36" t="s">
         <v>88</v>
       </c>
@@ -5017,14 +5737,14 @@
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="4"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="6"/>
       <c r="K36">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="5"/>
+      <c r="A37" s="7"/>
       <c r="C37" t="s">
         <v>89</v>
       </c>
@@ -5035,16 +5755,16 @@
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J37" s="4"/>
+      <c r="J37" s="6"/>
       <c r="K37">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="5"/>
+      <c r="A38" s="7"/>
       <c r="C38" t="s">
         <v>90</v>
       </c>
@@ -5058,14 +5778,14 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="4"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="6"/>
       <c r="K38">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="5"/>
+      <c r="A39" s="7"/>
       <c r="C39" t="s">
         <v>91</v>
       </c>
@@ -5076,14 +5796,14 @@
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="4"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="6"/>
       <c r="K39">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
       <c r="C40" t="s">
         <v>92</v>
       </c>
@@ -5097,14 +5817,14 @@
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="4"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="6"/>
       <c r="K40">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="5"/>
+      <c r="A41" s="7"/>
       <c r="C41" t="s">
         <v>93</v>
       </c>
@@ -5118,16 +5838,16 @@
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="6"/>
       <c r="K41">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C42" t="s">
@@ -5143,14 +5863,14 @@
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="4"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="6"/>
       <c r="K42">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="5"/>
+      <c r="A43" s="7"/>
       <c r="C43" t="s">
         <v>95</v>
       </c>
@@ -5161,14 +5881,14 @@
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="4"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="6"/>
       <c r="K43">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="5"/>
+      <c r="A44" s="7"/>
       <c r="C44" t="s">
         <v>96</v>
       </c>
@@ -5182,14 +5902,14 @@
         <f t="shared" si="0"/>
         <v>476</v>
       </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="4"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="6"/>
       <c r="K44">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="5"/>
+      <c r="A45" s="7"/>
       <c r="C45" t="s">
         <v>97</v>
       </c>
@@ -5203,10 +5923,10 @@
         <f t="shared" si="0"/>
         <v>498</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="6" t="s">
         <v>238</v>
       </c>
       <c r="K45">
@@ -5214,7 +5934,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="5"/>
+      <c r="A46" s="7"/>
       <c r="C46" t="s">
         <v>98</v>
       </c>
@@ -5228,14 +5948,14 @@
         <f t="shared" si="0"/>
         <v>522</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
       <c r="K46">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="5"/>
+      <c r="A47" s="7"/>
       <c r="C47" t="s">
         <v>99</v>
       </c>
@@ -5249,14 +5969,14 @@
         <f t="shared" si="0"/>
         <v>546</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
       <c r="K47">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="5"/>
+      <c r="A48" s="7"/>
       <c r="C48" t="s">
         <v>100</v>
       </c>
@@ -5270,14 +5990,14 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
       <c r="K48">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="5"/>
+      <c r="A49" s="7"/>
       <c r="C49" t="s">
         <v>101</v>
       </c>
@@ -5288,14 +6008,14 @@
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
       <c r="K49">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="5"/>
+      <c r="A50" s="7"/>
       <c r="C50" t="s">
         <v>102</v>
       </c>
@@ -5306,14 +6026,14 @@
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
       <c r="K50">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="5"/>
+      <c r="A51" s="7"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
@@ -5327,14 +6047,14 @@
         <f t="shared" si="0"/>
         <v>646</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
       <c r="K51">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="5"/>
+      <c r="A52" s="7"/>
       <c r="C52" t="s">
         <v>106</v>
       </c>
@@ -5348,14 +6068,14 @@
         <f t="shared" si="0"/>
         <v>672</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
       <c r="K52">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="5"/>
+      <c r="A53" s="7"/>
       <c r="C53" t="s">
         <v>107</v>
       </c>
@@ -5366,14 +6086,14 @@
         <f t="shared" si="0"/>
         <v>698</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
       <c r="K53">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="5"/>
+      <c r="A54" s="7"/>
       <c r="C54" t="s">
         <v>108</v>
       </c>
@@ -5384,14 +6104,14 @@
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
       <c r="K54">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="5"/>
+      <c r="A55" s="7"/>
       <c r="C55" t="s">
         <v>109</v>
       </c>
@@ -5402,14 +6122,14 @@
         <f t="shared" si="0"/>
         <v>754</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
       <c r="K55">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="5"/>
+      <c r="A56" s="7"/>
       <c r="C56" t="s">
         <v>110</v>
       </c>
@@ -5423,14 +6143,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
       <c r="K56">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="5"/>
+      <c r="A57" s="7"/>
       <c r="C57" t="s">
         <v>111</v>
       </c>
@@ -5444,14 +6164,14 @@
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
       <c r="K57">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="5"/>
+      <c r="A58" s="7"/>
       <c r="C58" t="s">
         <v>112</v>
       </c>
@@ -5462,14 +6182,14 @@
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
       <c r="K58">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="5"/>
+      <c r="A59" s="7"/>
       <c r="C59" t="s">
         <v>113</v>
       </c>
@@ -5480,14 +6200,14 @@
         <f t="shared" si="0"/>
         <v>870</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
       <c r="K59">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="5"/>
+      <c r="A60" s="7"/>
       <c r="C60" t="s">
         <v>114</v>
       </c>
@@ -5498,14 +6218,14 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
       <c r="K60">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="5"/>
+      <c r="A61" s="7"/>
       <c r="C61" t="s">
         <v>115</v>
       </c>
@@ -5519,10 +6239,10 @@
         <f t="shared" si="0"/>
         <v>930</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="6" t="s">
         <v>240</v>
       </c>
       <c r="K61">
@@ -5540,8 +6260,8 @@
         <f t="shared" si="0"/>
         <v>965</v>
       </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
       <c r="K62">
         <v>61</v>
       </c>
@@ -5557,8 +6277,8 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
       <c r="K63">
         <v>62</v>
       </c>
@@ -5574,8 +6294,8 @@
         <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
       <c r="K64">
         <v>63</v>
       </c>
@@ -5591,8 +6311,8 @@
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
       <c r="K65">
         <v>64</v>
       </c>
@@ -5611,8 +6331,8 @@
         <f t="shared" si="0"/>
         <v>1125</v>
       </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
       <c r="K66">
         <v>65</v>
       </c>
@@ -5628,8 +6348,8 @@
         <f t="shared" si="0"/>
         <v>1170</v>
       </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
       <c r="K67">
         <v>66</v>
       </c>
@@ -5645,8 +6365,8 @@
         <f t="shared" ref="H68:H81" si="1">H67+G68</f>
         <v>1220</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
       <c r="K68">
         <v>67</v>
       </c>
@@ -5662,8 +6382,8 @@
         <f t="shared" si="1"/>
         <v>1270</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
       <c r="K69">
         <v>68</v>
       </c>
@@ -5679,8 +6399,8 @@
         <f t="shared" si="1"/>
         <v>1325</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
       <c r="K70">
         <v>69</v>
       </c>
@@ -5699,8 +6419,8 @@
         <f t="shared" si="1"/>
         <v>1380</v>
       </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
       <c r="K71">
         <v>70</v>
       </c>
@@ -5716,8 +6436,8 @@
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
       <c r="K72">
         <v>71</v>
       </c>
@@ -5733,8 +6453,8 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
       <c r="K73">
         <v>72</v>
       </c>
@@ -5750,8 +6470,8 @@
         <f t="shared" si="1"/>
         <v>1565</v>
       </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
       <c r="K74">
         <v>73</v>
       </c>
@@ -5767,8 +6487,8 @@
         <f t="shared" si="1"/>
         <v>1630</v>
       </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
       <c r="K75">
         <v>74</v>
       </c>
@@ -5784,8 +6504,8 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
       <c r="K76">
         <v>75</v>
       </c>
@@ -5801,8 +6521,8 @@
         <f t="shared" si="1"/>
         <v>1770</v>
       </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
       <c r="K77">
         <v>76</v>
       </c>
@@ -5818,8 +6538,8 @@
         <f t="shared" si="1"/>
         <v>1845</v>
       </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
       <c r="K78">
         <v>77</v>
       </c>
@@ -5835,8 +6555,8 @@
         <f t="shared" si="1"/>
         <v>1920</v>
       </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
       <c r="K79">
         <v>78</v>
       </c>
@@ -5852,8 +6572,8 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
       <c r="K80">
         <v>79</v>
       </c>
@@ -5872,18 +6592,20 @@
         <f t="shared" si="1"/>
         <v>2080</v>
       </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
       <c r="K81">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="J18:J44"/>
     <mergeCell ref="J2:J17"/>
     <mergeCell ref="I18:I24"/>
+    <mergeCell ref="J45:J60"/>
+    <mergeCell ref="I61:I81"/>
+    <mergeCell ref="J61:J81"/>
+    <mergeCell ref="I29:I32"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="A42:A61"/>
@@ -5892,12 +6614,10 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="I45:I60"/>
-    <mergeCell ref="J45:J60"/>
-    <mergeCell ref="I61:I81"/>
-    <mergeCell ref="J61:J81"/>
-    <mergeCell ref="I29:I32"/>
     <mergeCell ref="I33:I36"/>
     <mergeCell ref="I37:I40"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="J18:J44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5910,7 +6630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -6147,11 +6867,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6352,14 +7072,14 @@
       <c r="A12" t="s">
         <v>277</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="4"/>
       <c r="L12" t="s">
         <v>268</v>
       </c>
@@ -6371,31 +7091,31 @@
       <c r="A13">
         <v>325</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
         <v>0.18</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>677</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>768</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="4"/>
       <c r="N14">
         <v>167066</v>
       </c>
@@ -6404,46 +7124,46 @@
       <c r="A15">
         <v>1.03</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>60</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>72</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>14</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>16</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>14</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>16</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="4"/>
       <c r="I17" t="s">
         <v>284</v>
       </c>
@@ -6460,10 +7180,10 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="I18" t="s">
         <v>286</v>
       </c>
@@ -6479,16 +7199,16 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>593</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="4">
         <v>627</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="4"/>
       <c r="I19" t="s">
         <v>289</v>
       </c>
@@ -6505,7 +7225,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>271</v>
       </c>
       <c r="D20">
@@ -6516,7 +7236,7 @@
         <f>E13*$A$2 + E14*$A$3 + E15* $A$4 + E16*$A$5 + E17*$A$6</f>
         <v>731.6</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="4"/>
       <c r="I20" t="s">
         <v>290</v>
       </c>
@@ -6557,6 +7277,197 @@
       <c r="Q24">
         <f>P24-O24</f>
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" t="s">
+        <v>344</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/成吉思汗/数值文档.xlsx
+++ b/Docs/成吉思汗/数值文档.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DesignDocs\Docs\成吉思汗\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="2160" windowWidth="24400" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="2160" windowWidth="24405" windowHeight="14220" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="伤害公式" sheetId="1" r:id="rId1"/>
@@ -16,8 +21,9 @@
     <sheet name="放开那三国战斗力估计" sheetId="6" r:id="rId7"/>
     <sheet name="总体属性成长" sheetId="8" r:id="rId8"/>
     <sheet name="开场AI逻辑" sheetId="9" r:id="rId9"/>
+    <sheet name="胜率" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="352">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1341,6 +1347,14 @@
   </si>
   <si>
     <t>H5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1625,6 +1639,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="149">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -1698,82 +1713,81 @@
     <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="链接单元格" xfId="116" builtinId="24"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1832,37 +1846,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240.0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>340.0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>440.0</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>540.0</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>640.0</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>740.0</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>840.0</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>940.0</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1040.0</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,37 +1907,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125.0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165.0</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>205.0</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245.0</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>285.0</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>325.0</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>365.0</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>405.0</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,37 +1968,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155.0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.0</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275.0</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>335.0</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>395.0</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>455.0</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>515.0</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>575.0</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>635.0</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,13 +2013,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1946786344"/>
-        <c:axId val="1945482952"/>
+        <c:axId val="320090240"/>
+        <c:axId val="319267728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946786344"/>
+        <c:axId val="320090240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1945482952"/>
+        <c:crossAx val="319267728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2022,7 +2035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1945482952"/>
+        <c:axId val="319267728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,7 +2046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1946786344"/>
+        <c:crossAx val="320090240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2049,7 +2062,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2076,10 +2089,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0473718535630273"/>
-          <c:y val="0.0195439739413681"/>
-          <c:w val="0.687869649120336"/>
-          <c:h val="0.875092461976455"/>
+          <c:x val="4.7371853563027297E-2"/>
+          <c:y val="1.9543973941368101E-2"/>
+          <c:w val="0.68786964912033599"/>
+          <c:h val="0.87509246197645496"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2109,37 +2122,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,37 +2164,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240.0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>340.0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>440.0</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>540.0</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>640.0</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>740.0</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>840.0</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>940.0</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1040.0</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,37 +2225,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,37 +2267,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125.0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165.0</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>205.0</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245.0</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>285.0</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>325.0</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>365.0</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>405.0</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2315,37 +2328,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,37 +2370,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>27.77777777777778</c:v>
+                  <c:v>27.777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.55555555555556</c:v>
+                  <c:v>15.555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.11764705882353</c:v>
+                  <c:v>14.117647058823529</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.33333333333333</c:v>
+                  <c:v>13.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.17073170731707</c:v>
+                  <c:v>13.170731707317072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.06122448979592</c:v>
+                  <c:v>13.061224489795919</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.98245614035088</c:v>
+                  <c:v>12.982456140350877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.92307692307692</c:v>
+                  <c:v>12.923076923076923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.87671232876712</c:v>
+                  <c:v>12.876712328767123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.83950617283951</c:v>
+                  <c:v>12.839506172839506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2402,13 +2415,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2145950984"/>
-        <c:axId val="2145953960"/>
+        <c:axId val="4050000"/>
+        <c:axId val="319243664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2145950984"/>
+        <c:axId val="4050000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,7 +2430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145953960"/>
+        <c:crossAx val="319243664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2426,7 +2438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145953960"/>
+        <c:axId val="319243664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,14 +2449,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145950984"/>
+        <c:crossAx val="4050000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2453,7 +2464,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2480,10 +2491,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0473718535630273"/>
-          <c:y val="0.0195439739413681"/>
-          <c:w val="0.687869649120336"/>
-          <c:h val="0.875092461976455"/>
+          <c:x val="4.7371853563027297E-2"/>
+          <c:y val="1.9543973941368101E-2"/>
+          <c:w val="0.68786964912033599"/>
+          <c:h val="0.87509246197645496"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2513,37 +2524,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,37 +2566,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240.0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>340.0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>440.0</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>540.0</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>640.0</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>740.0</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>840.0</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>940.0</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1040.0</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2616,37 +2627,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,37 +2669,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125.0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165.0</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>205.0</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245.0</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>285.0</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>325.0</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>365.0</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>405.0</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,37 +2730,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2761,34 +2772,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>45.87155963302752</c:v>
+                  <c:v>45.871559633027523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.55172413793105</c:v>
+                  <c:v>96.551724137931046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129.7297297297297</c:v>
+                  <c:v>129.72972972972974</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.1111111111111</c:v>
+                  <c:v>151.11111111111111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166.0377358490566</c:v>
+                  <c:v>166.03773584905662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177.0491803278689</c:v>
+                  <c:v>177.04918032786887</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>185.5072463768116</c:v>
+                  <c:v>185.50724637681157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>192.2077922077922</c:v>
+                  <c:v>192.20779220779218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>197.6470588235294</c:v>
+                  <c:v>197.64705882352945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>202.1505376344086</c:v>
+                  <c:v>202.15053763440864</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>205.9405940594059</c:v>
@@ -2806,13 +2817,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2146191512"/>
-        <c:axId val="2146194488"/>
+        <c:axId val="319271168"/>
+        <c:axId val="319252312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2146191512"/>
+        <c:axId val="319271168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146194488"/>
+        <c:crossAx val="319252312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2830,7 +2840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146194488"/>
+        <c:axId val="319252312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,7 +2851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146191512"/>
+        <c:crossAx val="319271168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2857,7 +2867,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3286,20 +3296,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" customHeight="1">
+    <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3319,7 +3329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35" customHeight="1">
+    <row r="2" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3339,7 +3349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28" customHeight="1">
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3357,7 +3367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3377,7 +3387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3402,7 +3412,7 @@
         <v>45.871559633027523</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10</v>
       </c>
@@ -3427,7 +3437,7 @@
         <v>96.551724137931046</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20</v>
       </c>
@@ -3452,7 +3462,7 @@
         <v>129.72972972972974</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>30</v>
       </c>
@@ -3477,7 +3487,7 @@
         <v>151.11111111111111</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>40</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>166.03773584905662</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>50</v>
       </c>
@@ -3527,7 +3537,7 @@
         <v>177.04918032786887</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>60</v>
       </c>
@@ -3552,7 +3562,7 @@
         <v>185.50724637681157</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>70</v>
       </c>
@@ -3577,7 +3587,7 @@
         <v>192.20779220779218</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>80</v>
       </c>
@@ -3602,7 +3612,7 @@
         <v>197.64705882352945</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>90</v>
       </c>
@@ -3627,7 +3637,7 @@
         <v>202.15053763440864</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>100</v>
       </c>
@@ -3664,6 +3674,402 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>0.9 + (A2-B2)/(0.9 * B2)</f>
+        <v>0.34444444444444444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">0.9 + (A3-B3)/(0.9 * B3)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.4555555555555556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.51111111111111107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.62222222222222223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.67777777777777781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.78888888888888897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <f>0.9 + (A12-B12)/(0.9 * B12)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>105</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>0.9 + (A13-B13)/(10*B13)</f>
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>110</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C32" si="1">0.9 + (A14-B14)/(10*B14)</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>115</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>125</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>130</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>135</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>140</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>145</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>155</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.95500000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>160</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>165</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.96500000000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>170</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>175</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>180</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>185</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>190</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>195</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>200</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K28"/>
@@ -3672,9 +4078,9 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3682,7 +4088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -3707,13 +4113,13 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="13" max="13" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -3754,7 +4160,7 @@
         <v>6.1224489795918366E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>299</v>
       </c>
@@ -3806,7 +4212,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16" thickTop="1">
+    <row r="3" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3859,7 +4265,7 @@
         <v>3.8105436573311363E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3912,7 +4318,7 @@
         <v>1.9239999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3965,7 +4371,7 @@
         <v>1.3280000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4018,7 +4424,7 @@
         <v>0.24590163934426229</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4071,7 +4477,7 @@
         <v>0.96721311475409832</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4124,7 +4530,7 @@
         <v>1.2950819672131155</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4170,7 +4576,7 @@
         <v>-5.8139999999998508</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -4216,7 +4622,7 @@
         <v>-8.4780000000000655</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4262,7 +4668,7 @@
         <v>-62.625999999999749</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4308,7 +4714,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4354,7 +4760,7 @@
         <v>-113.71199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4400,7 +4806,7 @@
         <v>22.945999999999913</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4446,7 +4852,7 @@
         <v>1.0979999999999563</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4492,7 +4898,7 @@
         <v>-30.611999999999853</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4538,7 +4944,7 @@
         <v>-42.618000000000166</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4584,7 +4990,7 @@
         <v>-98.839999999999918</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4630,7 +5036,7 @@
         <v>-14.258000000000038</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4676,7 +5082,7 @@
         <v>-86.583999999999946</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F25">
         <f>(1691-1685)/98</f>
         <v>6.1224489795918366E-2</v>
@@ -4686,7 +5092,7 @@
         <v>6.1224489795918366E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F26">
         <f>16/98</f>
         <v>0.16326530612244897</v>
@@ -4695,7 +5101,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4712,9 +5118,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>297</v>
       </c>
@@ -4722,7 +5128,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4730,7 +5136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -4738,7 +5144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10</v>
       </c>
@@ -4746,7 +5152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>15</v>
       </c>
@@ -4754,7 +5160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>20</v>
       </c>
@@ -4762,7 +5168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>25</v>
       </c>
@@ -4770,7 +5176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>30</v>
       </c>
@@ -4778,7 +5184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>35</v>
       </c>
@@ -4786,7 +5192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>40</v>
       </c>
@@ -4794,7 +5200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>45</v>
       </c>
@@ -4802,7 +5208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>50</v>
       </c>
@@ -4810,7 +5216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>55</v>
       </c>
@@ -4818,7 +5224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>60</v>
       </c>
@@ -4826,7 +5232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>70</v>
       </c>
@@ -4834,7 +5240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>80</v>
       </c>
@@ -4861,17 +5267,17 @@
       <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="55.5" customWidth="1"/>
-    <col min="6" max="6" width="59.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="59.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -4903,7 +5309,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>104</v>
       </c>
@@ -4935,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" t="s">
@@ -4963,7 +5369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" t="s">
@@ -4991,7 +5397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" t="s">
@@ -5019,7 +5425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" t="s">
@@ -5047,7 +5453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" t="s">
@@ -5075,7 +5481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30">
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" t="s">
@@ -5100,7 +5506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" t="s">
@@ -5125,7 +5531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30">
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
@@ -5153,7 +5559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
@@ -5181,7 +5587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45">
+    <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" t="s">
@@ -5206,7 +5612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30">
+    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" t="s">
@@ -5234,7 +5640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30">
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="C14" t="s">
         <v>60</v>
@@ -5255,7 +5661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="C15" t="s">
         <v>61</v>
@@ -5281,7 +5687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="C16" t="s">
         <v>62</v>
@@ -5305,7 +5711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30">
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="C17" t="s">
         <v>63</v>
@@ -5329,7 +5735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1">
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="C18" t="s">
         <v>64</v>
@@ -5351,7 +5757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="C19" t="s">
         <v>65</v>
@@ -5375,7 +5781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="C20" t="s">
         <v>66</v>
@@ -5393,7 +5799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="C21" t="s">
         <v>67</v>
@@ -5417,7 +5823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="C22" t="s">
         <v>68</v>
@@ -5435,7 +5841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="C23" t="s">
         <v>69</v>
@@ -5459,7 +5865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="C24" t="s">
         <v>70</v>
@@ -5477,7 +5883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="C25" t="s">
         <v>71</v>
@@ -5500,7 +5906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="C26" t="s">
         <v>72</v>
@@ -5524,7 +5930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="C27" t="s">
         <v>73</v>
@@ -5542,7 +5948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="C28" t="s">
         <v>74</v>
@@ -5563,7 +5969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="C29" t="s">
         <v>75</v>
@@ -5589,7 +5995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="C30" t="s">
         <v>76</v>
@@ -5607,7 +6013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="C31" t="s">
         <v>77</v>
@@ -5631,7 +6037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>105</v>
       </c>
@@ -5654,7 +6060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="C33" t="s">
         <v>85</v>
@@ -5677,7 +6083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="C34" t="s">
         <v>86</v>
@@ -5698,7 +6104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="C35" t="s">
         <v>87</v>
@@ -5719,7 +6125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="C36" t="s">
         <v>88</v>
@@ -5743,7 +6149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="C37" t="s">
         <v>89</v>
@@ -5763,7 +6169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="C38" t="s">
         <v>90</v>
@@ -5784,7 +6190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="C39" t="s">
         <v>91</v>
@@ -5802,7 +6208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="C40" t="s">
         <v>92</v>
@@ -5823,7 +6229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="C41" t="s">
         <v>93</v>
@@ -5846,7 +6252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>116</v>
       </c>
@@ -5869,7 +6275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="C43" t="s">
         <v>95</v>
@@ -5887,7 +6293,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="C44" t="s">
         <v>96</v>
@@ -5908,7 +6314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="C45" t="s">
         <v>97</v>
@@ -5933,7 +6339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="C46" t="s">
         <v>98</v>
@@ -5954,7 +6360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="C47" t="s">
         <v>99</v>
@@ -5975,7 +6381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="C48" t="s">
         <v>100</v>
@@ -5996,7 +6402,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="C49" t="s">
         <v>101</v>
@@ -6014,7 +6420,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="C50" t="s">
         <v>102</v>
@@ -6032,7 +6438,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="C51" t="s">
         <v>103</v>
@@ -6053,7 +6459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="C52" t="s">
         <v>106</v>
@@ -6074,7 +6480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="C53" t="s">
         <v>107</v>
@@ -6092,7 +6498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="C54" t="s">
         <v>108</v>
@@ -6110,7 +6516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="C55" t="s">
         <v>109</v>
@@ -6128,7 +6534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="C56" t="s">
         <v>110</v>
@@ -6149,7 +6555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="C57" t="s">
         <v>111</v>
@@ -6170,7 +6576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="C58" t="s">
         <v>112</v>
@@ -6188,7 +6594,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="C59" t="s">
         <v>113</v>
@@ -6206,7 +6612,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="C60" t="s">
         <v>114</v>
@@ -6224,7 +6630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="C61" t="s">
         <v>115</v>
@@ -6249,7 +6655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
         <v>127</v>
       </c>
@@ -6266,7 +6672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C63" t="s">
         <v>128</v>
       </c>
@@ -6283,7 +6689,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C64" t="s">
         <v>129</v>
       </c>
@@ -6300,7 +6706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="3:11">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
         <v>130</v>
       </c>
@@ -6317,7 +6723,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="3:11">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>131</v>
       </c>
@@ -6337,7 +6743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="3:11">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
         <v>132</v>
       </c>
@@ -6354,7 +6760,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="3:11">
+    <row r="68" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>133</v>
       </c>
@@ -6371,7 +6777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="3:11">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C69" t="s">
         <v>134</v>
       </c>
@@ -6388,7 +6794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="3:11">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C70" t="s">
         <v>135</v>
       </c>
@@ -6405,7 +6811,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="3:11">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
         <v>136</v>
       </c>
@@ -6425,7 +6831,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="3:11">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
         <v>137</v>
       </c>
@@ -6442,7 +6848,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="3:11">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C73" t="s">
         <v>138</v>
       </c>
@@ -6459,7 +6865,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="3:11">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C74" t="s">
         <v>139</v>
       </c>
@@ -6476,7 +6882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="3:11">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
         <v>140</v>
       </c>
@@ -6493,7 +6899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="3:11">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -6510,7 +6916,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="3:11">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
         <v>142</v>
       </c>
@@ -6527,7 +6933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="3:11">
+    <row r="78" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
         <v>143</v>
       </c>
@@ -6544,7 +6950,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="3:11">
+    <row r="79" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
         <v>144</v>
       </c>
@@ -6561,7 +6967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="3:11">
+    <row r="80" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C80" t="s">
         <v>145</v>
       </c>
@@ -6578,7 +6984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="3:11">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C81" t="s">
         <v>146</v>
       </c>
@@ -6600,12 +7006,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J2:J17"/>
-    <mergeCell ref="I18:I24"/>
-    <mergeCell ref="J45:J60"/>
-    <mergeCell ref="I61:I81"/>
-    <mergeCell ref="J61:J81"/>
-    <mergeCell ref="I29:I32"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="A42:A61"/>
@@ -6617,6 +7017,12 @@
     <mergeCell ref="I33:I36"/>
     <mergeCell ref="I37:I40"/>
     <mergeCell ref="I41:I44"/>
+    <mergeCell ref="J2:J17"/>
+    <mergeCell ref="I18:I24"/>
+    <mergeCell ref="J45:J60"/>
+    <mergeCell ref="I61:I81"/>
+    <mergeCell ref="J61:J81"/>
+    <mergeCell ref="I29:I32"/>
     <mergeCell ref="J18:J44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6638,219 +7044,219 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>196</v>
       </c>
@@ -6875,13 +7281,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>276</v>
       </c>
@@ -6901,7 +7307,7 @@
         <v>167113</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>420</v>
       </c>
@@ -6918,7 +7324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.27</v>
       </c>
@@ -6935,7 +7341,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1.03</v>
       </c>
@@ -6955,7 +7361,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6978,7 +7384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.88</v>
       </c>
@@ -7001,7 +7407,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="L7" t="s">
         <v>281</v>
       </c>
@@ -7009,7 +7415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7029,7 +7435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>272</v>
       </c>
@@ -7052,7 +7458,7 @@
         <v>46531</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="L10" t="s">
         <v>4</v>
       </c>
@@ -7060,7 +7466,7 @@
         <v>10262</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="L11" t="s">
         <v>283</v>
       </c>
@@ -7068,7 +7474,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>277</v>
       </c>
@@ -7087,7 +7493,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>325</v>
       </c>
@@ -7102,7 +7508,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.18</v>
       </c>
@@ -7120,7 +7526,7 @@
         <v>167066</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1.03</v>
       </c>
@@ -7135,7 +7541,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1.1000000000000001</v>
       </c>
@@ -7150,7 +7556,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7179,7 +7585,7 @@
         <v>0.39166666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -7198,7 +7604,7 @@
         <v>0.88513513513513509</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>269</v>
       </c>
@@ -7224,7 +7630,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
         <v>271</v>
       </c>
@@ -7248,7 +7654,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I23" t="s">
         <v>291</v>
       </c>
@@ -7264,7 +7670,7 @@
         <v>-1033</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I24" t="s">
         <v>292</v>
       </c>
@@ -7299,9 +7705,9 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>306</v>
       </c>
@@ -7309,12 +7715,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -7334,13 +7740,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -7366,7 +7772,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -7392,7 +7798,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>327</v>
       </c>
@@ -7418,7 +7824,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -7444,7 +7850,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>329</v>
       </c>
